--- a/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_D.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_D.xlsx
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.431673145344729</v>
+        <v>2.431673145344728</v>
       </c>
       <c r="C4" t="n">
         <v>19.05647847756366</v>
@@ -2209,7 +2209,7 @@
         <v>0.9376604423690846</v>
       </c>
       <c r="E4" t="n">
-        <v>2.593340867831523</v>
+        <v>2.593340867831519</v>
       </c>
       <c r="F4" t="n">
         <v>17.86850603926928</v>
@@ -2221,7 +2221,7 @@
         <v>174.2205763124222</v>
       </c>
       <c r="I4" t="n">
-        <v>95.09001441772874</v>
+        <v>95.09001441772875</v>
       </c>
       <c r="J4" t="n">
         <v>19.92687273818605</v>
@@ -2230,16 +2230,16 @@
         <v>9.629642014110185</v>
       </c>
       <c r="L4" t="n">
-        <v>25.35639019904738</v>
+        <v>25.35639019904739</v>
       </c>
       <c r="M4" t="n">
-        <v>46.33912695873141</v>
+        <v>46.33912695873134</v>
       </c>
       <c r="N4" t="n">
         <v>14.81383870817482</v>
       </c>
       <c r="O4" t="n">
-        <v>6.26780092716217e-07</v>
+        <v>1.047737896442413e-08</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>11.45085252621263</v>
+        <v>11.45085252621264</v>
       </c>
       <c r="BD4" t="n">
         <v>29.86489990666653</v>
@@ -2644,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.08037521682090984</v>
+        <v>0.08037521682090991</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.2096261217091252</v>
+        <v>0.2096261217091251</v>
       </c>
       <c r="EV4" t="n">
         <v>0.709998661469965</v>
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3691386447103551</v>
+        <v>0.369138644710355</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0003530644214373995</v>
+        <v>0.0003530644214373993</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.04739949465670761</v>
+        <v>0.0473994946567076</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.08342179711438116</v>
+        <v>0.08342179711438115</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.05512644928746304</v>
+        <v>0.05512644928746303</v>
       </c>
       <c r="GR4" t="n">
         <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.001478092048477587</v>
+        <v>0.001478092048477586</v>
       </c>
       <c r="GT4" t="n">
-        <v>5.851366641113646e-06</v>
+        <v>5.851366641113645e-06</v>
       </c>
       <c r="GU4" t="n">
-        <v>5.899266725789258e-06</v>
+        <v>5.899266725789257e-06</v>
       </c>
       <c r="GV4" t="n">
-        <v>5.327399893003171e-07</v>
+        <v>5.32739989300317e-07</v>
       </c>
       <c r="GW4" t="n">
         <v>1.235082487520133e-05</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.005938748672739043</v>
+        <v>0.005938748672739041</v>
       </c>
       <c r="GY4" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>-3.456767738111273</v>
       </c>
       <c r="HR4" t="n">
-        <v>9.587036672928532</v>
+        <v>0.5074801562856877</v>
       </c>
       <c r="HS4" t="n">
         <v>2.646468777598137</v>
@@ -2947,7 +2947,7 @@
         <v>-0.6135728076181178</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1.701689397089966</v>
+        <v>0.09007721892036111</v>
       </c>
       <c r="IR4" t="n">
         <v>0.4697455545658957</v>
@@ -3029,7 +3029,7 @@
         <v>0.9376604423472968</v>
       </c>
       <c r="E5" t="n">
-        <v>2.593340753398361</v>
+        <v>2.593340753398359</v>
       </c>
       <c r="F5" t="n">
         <v>17.86850602414424</v>
@@ -3053,13 +3053,13 @@
         <v>25.35638917202704</v>
       </c>
       <c r="M5" t="n">
-        <v>46.33912487475738</v>
+        <v>46.33912487475735</v>
       </c>
       <c r="N5" t="n">
         <v>14.81383851998481</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.594889909029007e-07</v>
+        <v>-3.490131348371506e-07</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.08037517160803311</v>
+        <v>0.08037517160803313</v>
       </c>
       <c r="EU5" t="n">
         <v>0.2096261198629692</v>
@@ -3692,7 +3692,7 @@
         <v>-3.456767971893682</v>
       </c>
       <c r="HR5" t="n">
-        <v>9.58703663905845</v>
+        <v>0.507480149869536</v>
       </c>
       <c r="HS5" t="n">
         <v>2.646468782618643</v>
@@ -3767,7 +3767,7 @@
         <v>-0.6135728575859631</v>
       </c>
       <c r="IQ5" t="n">
-        <v>1.701689414573568</v>
+        <v>0.09007721902521171</v>
       </c>
       <c r="IR5" t="n">
         <v>0.4697455619428854</v>
